--- a/04_for_predict_data.xlsx
+++ b/04_for_predict_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D2CACC-E05F-45C1-BDC2-63FAF32AB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097692A2-CAFC-4A54-BDFE-2602499397E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-12270" yWindow="1005" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +59,13 @@
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -115,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -123,18 +130,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <fill>
         <patternFill>
@@ -145,7 +146,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFFFCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -159,14 +167,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -189,9 +190,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -229,9 +230,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -264,9 +265,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,9 +317,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -477,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -623,19 +658,19 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="5">
         <v>5</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <v>37.940000000000502</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="5">
         <v>39.9800000000008</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="5">
         <v>3.1328125000000009</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="5">
         <v>7</v>
       </c>
     </row>
@@ -674,19 +709,19 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>5</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="5">
         <v>43.300000000001297</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="5">
         <v>44.9600000000016</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="5">
         <v>3.1440476190476199</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="5">
         <v>10</v>
       </c>
     </row>
@@ -1152,19 +1187,19 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="A1:D39 E2:E39">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A1=1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1=2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1=3</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1=4</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A1=5</formula>
     </cfRule>
   </conditionalFormatting>

--- a/04_for_predict_data.xlsx
+++ b/04_for_predict_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Janet\Desktop\CECI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D0856C-CCD3-4CC0-938A-277651FBDC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8E3C43-B891-4547-ABE5-8A19199750DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10800" yWindow="0" windowWidth="10800" windowHeight="12900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -187,7 +190,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -204,6 +207,18 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="6" borderId="0" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - 輔色2" xfId="1" builtinId="34"/>
@@ -578,7 +593,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -607,10 +622,10 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="14">
         <v>0.02</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="14">
         <v>14.06</v>
       </c>
       <c r="D2" s="5">
@@ -624,10 +639,10 @@
       <c r="A3" s="6">
         <v>2</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="15">
         <v>14.08</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="15">
         <v>16.28</v>
       </c>
       <c r="D3" s="6">
@@ -641,10 +656,10 @@
       <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="16">
         <v>16.3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="16">
         <v>21.42</v>
       </c>
       <c r="D4" s="7">
@@ -658,10 +673,10 @@
       <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>21.44</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="15">
         <v>23.78</v>
       </c>
       <c r="D5" s="6">
@@ -675,10 +690,10 @@
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="16">
         <v>23.8</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="16">
         <v>43.040000000001299</v>
       </c>
       <c r="D6" s="7">
@@ -692,10 +707,10 @@
       <c r="A7" s="8">
         <v>5</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="17">
         <v>43.060000000001303</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="17">
         <v>44.9600000000016</v>
       </c>
       <c r="D7" s="8">
@@ -709,10 +724,10 @@
       <c r="A8" s="6">
         <v>2</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="15">
         <v>44.980000000001603</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="15">
         <v>46.260000000001803</v>
       </c>
       <c r="D8" s="6">
@@ -726,10 +741,10 @@
       <c r="A9" s="9">
         <v>3</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="18">
         <v>46.280000000001799</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="18">
         <v>49.1200000000022</v>
       </c>
       <c r="D9" s="9">
@@ -743,10 +758,10 @@
       <c r="A10" s="7">
         <v>1</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="16">
         <v>49.140000000002203</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="16">
         <v>59.440000000003799</v>
       </c>
       <c r="D10" s="7">
@@ -760,10 +775,10 @@
       <c r="A11" s="10">
         <v>5</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="19">
         <v>59.460000000003802</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="19">
         <v>63.900000000004503</v>
       </c>
       <c r="D11" s="10">
@@ -777,10 +792,10 @@
       <c r="A12" s="11">
         <v>3</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="20">
         <v>63.920000000004499</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="20">
         <v>64.980000000004694</v>
       </c>
       <c r="D12" s="11">
@@ -794,10 +809,10 @@
       <c r="A13" s="7">
         <v>1</v>
       </c>
-      <c r="B13" s="7">
+      <c r="B13" s="16">
         <v>65.000000000004704</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="16">
         <v>67.140000000005003</v>
       </c>
       <c r="D13" s="7">
@@ -811,10 +826,10 @@
       <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="15">
         <v>67.160000000004999</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="15">
         <v>72.479999999999507</v>
       </c>
       <c r="D14" s="6">
@@ -828,10 +843,10 @@
       <c r="A15" s="8">
         <v>5</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="17">
         <v>72.499999999999503</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="17">
         <v>77.699999999998496</v>
       </c>
       <c r="D15" s="8">
@@ -845,10 +860,10 @@
       <c r="A16" s="12">
         <v>2</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="21">
         <v>77.719999999998507</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="21">
         <v>83.979999999997204</v>
       </c>
       <c r="D16" s="12">
@@ -862,10 +877,10 @@
       <c r="A17" s="13">
         <v>5</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17" s="22">
         <v>83.9999999999972</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="22">
         <v>88.479999999996295</v>
       </c>
       <c r="D17" s="13">
@@ -879,10 +894,10 @@
       <c r="A18" s="3">
         <v>2</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="23">
         <v>88.499999999996305</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="23">
         <v>91.519999999995704</v>
       </c>
       <c r="D18" s="3">
@@ -896,10 +911,10 @@
       <c r="A19" s="4">
         <v>4</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="24">
         <v>91.5399999999957</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="24">
         <v>98.879999999994297</v>
       </c>
       <c r="D19" s="4">
@@ -913,10 +928,10 @@
       <c r="A20" s="2">
         <v>1</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="25">
         <v>98.899999999994293</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="25">
         <v>104.99999999999299</v>
       </c>
       <c r="D20" s="2">
